--- a/biology/Biochimie/Acide_uronique/Acide_uronique.xlsx
+++ b/biology/Biochimie/Acide_uronique/Acide_uronique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les acides uroniques sont des composés chimiques obtenus par oxydation du dernier carbone des oses simples (ose acide). Ils entrent dans la composition des glycosaminoglycanes, constituants essentiels des matrices extracellulaires.
 Par exemple :
